--- a/Doc/上下肢通讯协议-上位机对主板.xlsx
+++ b/Doc/上下肢通讯协议-上位机对主板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="上下肢通讯协议总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>标题</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>通道8频率</t>
+  </si>
+  <si>
+    <t>上下肢功率怎么区分开</t>
+  </si>
+  <si>
+    <t>距离该怎么计算</t>
+  </si>
+  <si>
+    <t>UI上显示的是左右平衡度，但是下位机上传的是下肢平衡度和上肢平衡度</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1468,6 +1477,43 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,7 +1639,7 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,7 +1669,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,28 +1687,28 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,10 +1717,10 @@
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1732,7 +1778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2027,7 +2073,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2351,16 +2406,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.8333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.1666666666667" style="1" customWidth="1"/>
@@ -4110,7 +4166,7 @@
       <c r="H66" s="97">
         <v>0</v>
       </c>
-      <c r="I66" s="98" t="s">
+      <c r="I66" s="101" t="s">
         <v>36</v>
       </c>
       <c r="J66" s="91"/>
@@ -4124,9 +4180,50 @@
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
     </row>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="100"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:4">
+      <c r="A72" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="100"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:4">
+      <c r="A73" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="100"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="100"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="98"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="100"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="A24:A26"/>

--- a/Doc/上下肢通讯协议-上位机对主板.xlsx
+++ b/Doc/上下肢通讯协议-上位机对主板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
   <si>
     <t>标题</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>UI上显示的是左右平衡度，但是下位机上传的是下肢平衡度和上肢平衡度</t>
+  </si>
+  <si>
+    <t>运动模式对应关系不明确</t>
+  </si>
+  <si>
+    <t>阻力该怎么对应</t>
   </si>
 </sst>
 </file>
@@ -2408,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:AN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -4205,13 +4211,17 @@
       <c r="D73" s="100"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="98"/>
+      <c r="A74" s="98" t="s">
+        <v>150</v>
+      </c>
       <c r="B74" s="99"/>
       <c r="C74" s="99"/>
       <c r="D74" s="100"/>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="98"/>
+      <c r="A75" s="98" t="s">
+        <v>151</v>
+      </c>
       <c r="B75" s="99"/>
       <c r="C75" s="99"/>
       <c r="D75" s="100"/>

--- a/Doc/上下肢通讯协议-上位机对主板.xlsx
+++ b/Doc/上下肢通讯协议-上位机对主板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="25185" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="上下肢通讯协议总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
   <si>
     <t>标题</t>
   </si>
@@ -68,20 +68,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">0：被动（可切主动）
 1：主动（可切被动）
 2：助力
 3：等速（可切被动）
-4：上下协同被动
+4：上下协同被动（四肢纯被动）
 5：上肢带下肢
 6：下肢带上肢
-7：自由训练
+7：自由训练（四肢主被动）
 </t>
     </r>
     <r>
@@ -197,7 +191,7 @@
     <t>0x04(手动换向）</t>
   </si>
   <si>
-    <t>自动调整为反方向</t>
+    <t>自动调整为反方向（0-逆,1-正）</t>
   </si>
   <si>
     <t>0x05(FES频率）</t>
@@ -231,6 +225,9 @@
   </si>
   <si>
     <t>0x10(痉挛确认通知)</t>
+  </si>
+  <si>
+    <t>0-逆向 1-正向</t>
   </si>
   <si>
     <t>上位机下发心跳指令</t>
@@ -516,16 +513,22 @@
     <t>上下肢功率怎么区分开</t>
   </si>
   <si>
-    <t>距离该怎么计算</t>
-  </si>
-  <si>
-    <t>UI上显示的是左右平衡度，但是下位机上传的是下肢平衡度和上肢平衡度</t>
-  </si>
-  <si>
-    <t>运动模式对应关系不明确</t>
-  </si>
-  <si>
-    <t>阻力该怎么对应</t>
+    <t>距离该怎么计算（使用圈数进行计算）</t>
+  </si>
+  <si>
+    <t>UI上显示的是左右平衡度，但是下位机上传的是下肢平衡度和上肢平衡度，默认为左侧平衡度，右侧为100-左侧</t>
+  </si>
+  <si>
+    <t>运动模式对应关系不明确（已经说明）</t>
+  </si>
+  <si>
+    <t>阻力该怎么对应（改成档位）</t>
+  </si>
+  <si>
+    <t>痉挛后方向问题未添加</t>
+  </si>
+  <si>
+    <t>正向反向问题，需要添加一个绝对值</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,6 +802,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1525,6 +1534,92 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -1642,10 +1737,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,16 +1749,16 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,10 +1770,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1693,55 +1788,52 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1753,38 +1845,41 @@
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,7 +1952,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1890,37 +1988,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1938,7 +2036,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2031,7 +2129,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2049,7 +2147,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2088,7 +2186,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2412,10 +2537,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:D75"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2424,7 +2549,7 @@
     <col min="2" max="3" width="13.8333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.1666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.8333333333333" style="1" customWidth="1"/>
@@ -2445,8 +2570,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2475,10 +2600,10 @@
       <c r="H2" s="5">
         <v>7</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="66">
         <v>8</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="6"/>
@@ -2503,10 +2628,10 @@
       <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" ht="158" customHeight="1" spans="1:10">
       <c r="A4" s="6"/>
@@ -2531,10 +2656,10 @@
       <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="69" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2561,10 +2686,10 @@
       <c r="H5" s="12">
         <v>15</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="70">
         <v>16</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:10">
       <c r="A6" s="6"/>
@@ -2589,10 +2714,10 @@
       <c r="H6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" ht="50.5" customHeight="1" spans="1:10">
       <c r="A7" s="6"/>
@@ -2617,10 +2742,10 @@
       <c r="H7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="72">
         <v>0</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:10">
       <c r="A8" s="6"/>
@@ -2634,7 +2759,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="73"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="6"/>
@@ -2648,7 +2773,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="73"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:10">
       <c r="A10" s="18"/>
@@ -2662,7 +2787,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:10">
       <c r="A11" s="19" t="s">
@@ -2689,10 +2814,10 @@
       <c r="H11" s="20">
         <v>7</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="75">
         <v>8</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:10">
       <c r="A12" s="19"/>
@@ -2717,10 +2842,10 @@
       <c r="H12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="69" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2747,10 +2872,10 @@
       <c r="H13" s="23">
         <v>0</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="77"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="19"/>
@@ -2765,8 +2890,8 @@
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="19"/>
@@ -2781,8 +2906,8 @@
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="19"/>
@@ -2792,13 +2917,13 @@
       <c r="E16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="19"/>
@@ -2815,8 +2940,8 @@
         <v>52</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="19"/>
@@ -2831,8 +2956,8 @@
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="19"/>
@@ -2847,8 +2972,8 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="19"/>
@@ -2865,8 +2990,8 @@
         <v>0</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="19"/>
@@ -2881,8 +3006,8 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="19"/>
@@ -2892,52 +3017,52 @@
       <c r="E22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="22">
-        <v>0</v>
+      <c r="F22" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="78"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="25">
+      <c r="A24" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="26">
         <v>1</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="27">
         <v>2</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="27">
         <v>3</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="27">
         <v>4</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="28">
         <v>5</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="27">
         <v>6</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="28">
         <v>7</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="80">
         <v>8</v>
       </c>
-      <c r="J24" s="80" t="s">
-        <v>62</v>
+      <c r="J24" s="81" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="24"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -2947,86 +3072,86 @@
         <v>6</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="29" t="s">
         <v>64</v>
       </c>
+      <c r="F25" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="G25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="67" t="s">
+      <c r="I25" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="80"/>
+      <c r="J25" s="81"/>
     </row>
     <row r="26" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A26" s="24"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="32">
         <v>4</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="33">
+      <c r="D26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="34">
         <v>0</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="35">
         <v>0</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="34">
         <v>0</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="35">
         <v>0</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="80"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="25">
+      <c r="A28" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="26">
         <v>1</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="27">
         <v>2</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="27">
         <v>3</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="27">
         <v>4</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="28">
         <v>5</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="27">
         <v>6</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="28">
         <v>7</v>
       </c>
-      <c r="I28" s="79">
+      <c r="I28" s="80">
         <v>8</v>
       </c>
-      <c r="J28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="35"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3036,86 +3161,86 @@
         <v>6</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="29" t="s">
         <v>64</v>
       </c>
+      <c r="F29" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="67" t="s">
+      <c r="I29" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="31">
+      <c r="A30" s="36"/>
+      <c r="B30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="32">
         <v>4</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="34">
         <v>0</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="35">
         <v>0</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="34">
         <v>0</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="35">
         <v>0</v>
       </c>
-      <c r="I30" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="64"/>
+      <c r="I30" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" customHeight="1" spans="1:10">
-      <c r="A32" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="25">
+      <c r="A32" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="26">
         <v>1</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="27">
         <v>2</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="27">
         <v>3</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="28">
         <v>4</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="27">
         <v>5</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="27">
         <v>6</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="28">
         <v>7</v>
       </c>
-      <c r="I32" s="79">
+      <c r="I32" s="80">
         <v>8</v>
       </c>
-      <c r="J32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" customHeight="1" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3124,77 +3249,77 @@
       <c r="D33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="29" t="s">
+      <c r="E33" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="32">
         <v>4</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="34">
+      <c r="D34" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="35">
         <v>0</v>
       </c>
-      <c r="I34" s="81" t="s">
+      <c r="I34" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" customHeight="1" spans="1:10">
-      <c r="A36" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="25">
+      <c r="A36" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="26">
         <v>1</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="27">
         <v>2</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="27">
         <v>3</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="28">
         <v>4</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="27">
         <v>5</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="27">
         <v>6</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="28">
         <v>7</v>
       </c>
-      <c r="I36" s="79">
+      <c r="I36" s="80">
         <v>8</v>
       </c>
-      <c r="J36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" customHeight="1" spans="1:10">
-      <c r="A37" s="43"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3204,86 +3329,86 @@
         <v>6</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="67" t="s">
+      <c r="I37" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A38" s="43"/>
-      <c r="B38" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="31">
+      <c r="A38" s="44"/>
+      <c r="B38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="32">
         <v>4</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="33" t="s">
+      <c r="D38" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="34">
+      <c r="E38" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="35">
         <v>0</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="34">
         <v>0</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="35">
         <v>0</v>
       </c>
-      <c r="I38" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="J38" s="64"/>
+      <c r="I38" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" customHeight="1" spans="1:10">
-      <c r="A40" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="25">
+      <c r="A40" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="26">
         <v>1</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="27">
         <v>2</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="27">
         <v>3</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="27">
         <v>4</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="28">
         <v>5</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="27">
         <v>6</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="28">
         <v>7</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="80">
         <v>8</v>
       </c>
-      <c r="J40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" customHeight="1" spans="1:10">
-      <c r="A41" s="24"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -3295,84 +3420,84 @@
       <c r="E41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="67" t="s">
+      <c r="I41" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A42" s="24"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="32">
         <v>4</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="33">
+      <c r="D42" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="35">
         <v>0</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="34">
         <v>0</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="35">
         <v>0</v>
       </c>
-      <c r="I42" s="81" t="s">
+      <c r="I42" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" customHeight="1" spans="1:10">
-      <c r="A44" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="25">
+      <c r="A44" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="26">
         <v>1</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="27">
         <v>2</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="27">
         <v>3</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="28">
         <v>4</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="27">
         <v>5</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="27">
         <v>6</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="28">
         <v>7</v>
       </c>
-      <c r="I44" s="79">
+      <c r="I44" s="80">
         <v>8</v>
       </c>
-      <c r="J44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" customHeight="1" spans="1:10">
-      <c r="A45" s="43"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3381,512 +3506,512 @@
       <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="29" t="s">
+      <c r="E45" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="67" t="s">
+      <c r="I45" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A46" s="43"/>
-      <c r="B46" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="31">
+      <c r="A46" s="44"/>
+      <c r="B46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="32">
         <v>4</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="34">
+      <c r="D46" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="35">
         <v>0</v>
       </c>
-      <c r="I46" s="81" t="s">
+      <c r="I46" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="65"/>
+    </row>
+    <row r="47" customHeight="1" spans="10:10">
+      <c r="J47" s="65"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:30">
+      <c r="A48" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="46">
+        <v>1</v>
+      </c>
+      <c r="C48" s="46">
+        <v>2</v>
+      </c>
+      <c r="D48" s="46">
+        <v>3</v>
+      </c>
+      <c r="E48" s="46">
+        <v>4</v>
+      </c>
+      <c r="F48" s="46">
+        <v>5</v>
+      </c>
+      <c r="G48" s="46">
+        <v>6</v>
+      </c>
+      <c r="H48" s="46">
+        <v>7</v>
+      </c>
+      <c r="I48" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="84"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="85"/>
+      <c r="AD48" s="85"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:30">
+      <c r="A49" s="45"/>
+      <c r="B49" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="84"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
+      <c r="AC49" s="85"/>
+      <c r="AD49" s="85"/>
+    </row>
+    <row r="50" ht="115.5" customHeight="1" spans="1:30">
+      <c r="A50" s="45"/>
+      <c r="B50" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="64"/>
-    </row>
-    <row r="47" customHeight="1" spans="10:10">
-      <c r="J47" s="64"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:30">
-      <c r="A48" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="45">
+      <c r="C50" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="88"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
+      <c r="W50" s="85"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="85"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="85"/>
+      <c r="AC50" s="85"/>
+      <c r="AD50" s="85"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:30">
+      <c r="A51" s="45"/>
+      <c r="B51" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="46">
+        <v>16</v>
+      </c>
+      <c r="F51" s="46">
+        <v>17</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="89">
+        <v>22</v>
+      </c>
+      <c r="J51" s="71"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="85"/>
+      <c r="AD51" s="85"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:30">
+      <c r="A52" s="45"/>
+      <c r="B52" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="71"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
+      <c r="AC52" s="85"/>
+      <c r="AD52" s="85"/>
+    </row>
+    <row r="53" ht="31.5" customHeight="1" spans="1:30">
+      <c r="A53" s="45"/>
+      <c r="B53" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="71"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:30">
+      <c r="A54" s="45"/>
+      <c r="B54" s="46">
+        <v>23</v>
+      </c>
+      <c r="C54" s="46">
+        <v>24</v>
+      </c>
+      <c r="D54" s="46">
+        <v>25</v>
+      </c>
+      <c r="E54" s="46">
+        <v>26</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="46">
+        <v>35</v>
+      </c>
+      <c r="I54" s="89">
+        <v>36</v>
+      </c>
+      <c r="J54" s="71"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="85"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="85"/>
+      <c r="AC54" s="85"/>
+      <c r="AD54" s="85"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:30">
+      <c r="A55" s="45"/>
+      <c r="B55" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="71"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+    </row>
+    <row r="56" ht="56.75" customHeight="1" spans="1:30">
+      <c r="A56" s="45"/>
+      <c r="B56" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="48">
+        <v>0</v>
+      </c>
+      <c r="I56" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="73"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="85"/>
+      <c r="AA56" s="85"/>
+      <c r="AB56" s="85"/>
+      <c r="AC56" s="85"/>
+      <c r="AD56" s="85"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1" spans="10:10">
+      <c r="J57" s="65"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:40">
+      <c r="A58" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="53">
         <v>1</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C58" s="54">
         <v>2</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D58" s="54">
         <v>3</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E58" s="54">
         <v>4</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F58" s="54">
         <v>5</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G58" s="54">
         <v>6</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H58" s="54">
         <v>7</v>
       </c>
-      <c r="I48" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" s="83"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="84"/>
-      <c r="X48" s="84"/>
-      <c r="Y48" s="84"/>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="84"/>
-      <c r="AC48" s="84"/>
-      <c r="AD48" s="84"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:30">
-      <c r="A49" s="44"/>
-      <c r="B49" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="83"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="84"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="84"/>
-    </row>
-    <row r="50" ht="115.5" customHeight="1" spans="1:30">
-      <c r="A50" s="44"/>
-      <c r="B50" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="J50" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="K50" s="87"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:30">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="45">
-        <v>16</v>
-      </c>
-      <c r="F51" s="45">
-        <v>17</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I51" s="88">
-        <v>22</v>
-      </c>
-      <c r="J51" s="70"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="84"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:30">
-      <c r="A52" s="44"/>
-      <c r="B52" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="70"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="84"/>
-      <c r="X52" s="84"/>
-      <c r="Y52" s="84"/>
-      <c r="Z52" s="84"/>
-      <c r="AA52" s="84"/>
-      <c r="AB52" s="84"/>
-      <c r="AC52" s="84"/>
-      <c r="AD52" s="84"/>
-    </row>
-    <row r="53" ht="31.5" customHeight="1" spans="1:30">
-      <c r="A53" s="44"/>
-      <c r="B53" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H53" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I53" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="J53" s="70"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:30">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45">
-        <v>23</v>
-      </c>
-      <c r="C54" s="45">
-        <v>24</v>
-      </c>
-      <c r="D54" s="45">
-        <v>25</v>
-      </c>
-      <c r="E54" s="45">
-        <v>26</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="45">
-        <v>35</v>
-      </c>
-      <c r="I54" s="88">
-        <v>36</v>
-      </c>
-      <c r="J54" s="70"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="84"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="84"/>
-      <c r="AD54" s="84"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:30">
-      <c r="A55" s="44"/>
-      <c r="B55" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J55" s="70"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
-      <c r="W55" s="84"/>
-      <c r="X55" s="84"/>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="84"/>
-      <c r="AA55" s="84"/>
-      <c r="AB55" s="84"/>
-      <c r="AC55" s="84"/>
-      <c r="AD55" s="84"/>
-    </row>
-    <row r="56" ht="56.75" customHeight="1" spans="1:30">
-      <c r="A56" s="44"/>
-      <c r="B56" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H56" s="47">
-        <v>0</v>
-      </c>
-      <c r="I56" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="J56" s="72"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="84"/>
-      <c r="W56" s="84"/>
-      <c r="X56" s="84"/>
-      <c r="Y56" s="84"/>
-      <c r="Z56" s="84"/>
-      <c r="AA56" s="84"/>
-      <c r="AB56" s="84"/>
-      <c r="AC56" s="84"/>
-      <c r="AD56" s="84"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J57" s="64"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:40">
-      <c r="A58" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="52">
-        <v>1</v>
-      </c>
-      <c r="C58" s="53">
-        <v>2</v>
-      </c>
-      <c r="D58" s="53">
-        <v>3</v>
-      </c>
-      <c r="E58" s="53">
-        <v>4</v>
-      </c>
-      <c r="F58" s="53">
-        <v>5</v>
-      </c>
-      <c r="G58" s="53">
-        <v>6</v>
-      </c>
-      <c r="H58" s="53">
-        <v>7</v>
-      </c>
-      <c r="I58" s="90">
+      <c r="I58" s="91">
         <v>8</v>
       </c>
-      <c r="J58" s="91"/>
+      <c r="J58" s="92"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -3898,32 +4023,32 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:40">
-      <c r="A59" s="51"/>
-      <c r="B59" s="54" t="s">
+      <c r="A59" s="52"/>
+      <c r="B59" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="56" t="s">
+      <c r="E59" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G59" s="56" t="s">
+      <c r="F59" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H59" s="56" t="s">
+      <c r="G59" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="92" t="s">
+      <c r="H59" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="J59" s="91"/>
+      <c r="I59" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="J59" s="92"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -3935,62 +4060,62 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="114.75" customHeight="1" spans="1:10">
-      <c r="A60" s="51"/>
-      <c r="B60" s="54" t="s">
+      <c r="A60" s="52"/>
+      <c r="B60" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="58" t="s">
+      <c r="C60" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="G60" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="94" t="s">
+      <c r="F60" s="59" t="s">
         <v>133</v>
       </c>
+      <c r="G60" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="95" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="61" customHeight="1" spans="1:40">
-      <c r="A61" s="51"/>
-      <c r="B61" s="59">
+      <c r="A61" s="52"/>
+      <c r="B61" s="60">
         <v>9</v>
       </c>
-      <c r="C61" s="60">
+      <c r="C61" s="61">
         <v>10</v>
       </c>
-      <c r="D61" s="60">
+      <c r="D61" s="61">
         <v>11</v>
       </c>
-      <c r="E61" s="60">
+      <c r="E61" s="61">
         <v>12</v>
       </c>
-      <c r="F61" s="60">
+      <c r="F61" s="61">
         <v>13</v>
       </c>
-      <c r="G61" s="60">
+      <c r="G61" s="61">
         <v>14</v>
       </c>
-      <c r="H61" s="60">
+      <c r="H61" s="61">
         <v>15</v>
       </c>
-      <c r="I61" s="95">
+      <c r="I61" s="96">
         <v>16</v>
       </c>
-      <c r="J61" s="91"/>
+      <c r="J61" s="92"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -4002,32 +4127,32 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" customHeight="1" spans="1:40">
-      <c r="A62" s="51"/>
-      <c r="B62" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="56" t="s">
+      <c r="A62" s="52"/>
+      <c r="B62" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="C62" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="D62" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="E62" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="56" t="s">
+      <c r="F62" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="H62" s="56" t="s">
+      <c r="G62" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="92" t="s">
+      <c r="H62" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="J62" s="91"/>
+      <c r="I62" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62" s="92"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -4039,32 +4164,32 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" ht="25.5" customHeight="1" spans="1:40">
-      <c r="A63" s="51"/>
-      <c r="B63" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="I63" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="J63" s="91"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="92"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -4076,32 +4201,32 @@
       <c r="AN63" s="1"/>
     </row>
     <row r="64" customHeight="1" spans="1:40">
-      <c r="A64" s="51"/>
-      <c r="B64" s="59">
+      <c r="A64" s="52"/>
+      <c r="B64" s="60">
         <v>25</v>
       </c>
-      <c r="C64" s="60">
+      <c r="C64" s="61">
         <v>26</v>
       </c>
-      <c r="D64" s="60">
+      <c r="D64" s="61">
         <v>27</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="61">
         <v>28</v>
       </c>
-      <c r="F64" s="60">
+      <c r="F64" s="61">
         <v>29</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="61">
         <v>30</v>
       </c>
-      <c r="H64" s="60">
+      <c r="H64" s="61">
         <v>31</v>
       </c>
-      <c r="I64" s="95">
+      <c r="I64" s="96">
         <v>32</v>
       </c>
-      <c r="J64" s="91"/>
+      <c r="J64" s="92"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -4113,32 +4238,32 @@
       <c r="AN64" s="1"/>
     </row>
     <row r="65" customHeight="1" spans="1:40">
-      <c r="A65" s="51"/>
-      <c r="B65" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="56" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="C65" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="56" t="s">
+      <c r="D65" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="56" t="s">
+      <c r="E65" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="56" t="s">
+      <c r="G65" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="56" t="s">
+      <c r="H65" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="92" t="s">
+      <c r="I65" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="91"/>
+      <c r="J65" s="92"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -4150,32 +4275,32 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" ht="26.25" customHeight="1" spans="1:40">
-      <c r="A66" s="51"/>
-      <c r="B66" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="97">
+      <c r="A66" s="52"/>
+      <c r="B66" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="98">
         <v>0</v>
       </c>
-      <c r="G66" s="97">
+      <c r="G66" s="98">
         <v>0</v>
       </c>
-      <c r="H66" s="97">
+      <c r="H66" s="98">
         <v>0</v>
       </c>
-      <c r="I66" s="101" t="s">
+      <c r="I66" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="91"/>
+      <c r="J66" s="92"/>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -4187,53 +4312,75 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="100"/>
+      <c r="A71" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="101"/>
     </row>
     <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="100"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="98" t="s">
+      <c r="A72" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="100"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="104"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:9">
+      <c r="A73" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="106"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="100"/>
+      <c r="A74" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="108"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="109"/>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="100"/>
+      <c r="A75" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="101"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:4">
+      <c r="A76" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="A24:A26"/>

--- a/Doc/上下肢通讯协议-上位机对主板.xlsx
+++ b/Doc/上下肢通讯协议-上位机对主板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25185" windowHeight="12525"/>
+    <workbookView windowWidth="28380" windowHeight="15075"/>
   </bookViews>
   <sheets>
     <sheet name="上下肢通讯协议总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="153">
   <si>
     <t>标题</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">0：被动（可切主动）
 1：主动（可切被动）
 2：助力
@@ -118,10 +124,10 @@
     <t>默认阻力</t>
   </si>
   <si>
-    <t>痉挛后方向</t>
-  </si>
-  <si>
     <t>校验和</t>
+  </si>
+  <si>
+    <t>帧尾</t>
   </si>
   <si>
     <t>0 - 2：低中高</t>
@@ -142,14 +148,6 @@
   </si>
   <si>
     <t>0 - 29Nm</t>
-  </si>
-  <si>
-    <t>0-停止
-1-正向
-2-逆向</t>
-  </si>
-  <si>
-    <t>帧尾</t>
   </si>
   <si>
     <t>0xCD</t>
@@ -1077,6 +1075,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF2B2B2B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF2B2B2B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1229,17 +1251,6 @@
         <color rgb="FF2B2B2B"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF2B2B2B"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1341,19 +1352,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1922,6 +1920,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1931,16 +1932,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1958,46 +1962,43 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2012,7 +2013,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2039,81 +2043,75 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2123,22 +2121,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2147,16 +2145,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2165,7 +2163,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2539,8 +2537,8 @@
   </sheetPr>
   <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2570,8 +2568,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2600,10 +2598,10 @@
       <c r="H2" s="5">
         <v>7</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="68">
         <v>8</v>
       </c>
-      <c r="J2" s="65"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="6"/>
@@ -2628,10 +2626,10 @@
       <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" ht="158" customHeight="1" spans="1:10">
       <c r="A4" s="6"/>
@@ -2656,10 +2654,10 @@
       <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="70" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2686,10 +2684,10 @@
       <c r="H5" s="12">
         <v>15</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="71">
         <v>16</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:10">
       <c r="A6" s="6"/>
@@ -2711,358 +2709,350 @@
       <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="71"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" ht="50.5" customHeight="1" spans="1:10">
       <c r="A7" s="6"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="72">
-        <v>0</v>
       </c>
       <c r="J7" s="73"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:10">
       <c r="A8" s="6"/>
-      <c r="B8" s="17">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="74"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="6"/>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:10">
+      <c r="A10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="74"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="74"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="B11" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="22">
         <v>3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="22">
         <v>4</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="22">
         <v>5</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="22">
         <v>6</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="22">
         <v>7</v>
       </c>
       <c r="I11" s="75">
         <v>8</v>
       </c>
-      <c r="J11" s="65"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:10">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="H12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="E13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="21">
-        <v>4</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="F13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="78"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="78"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="77"/>
       <c r="J14" s="78"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="77"/>
       <c r="J15" s="78"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="77"/>
       <c r="J16" s="78"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="77"/>
       <c r="J17" s="78"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="77"/>
       <c r="J18" s="78"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="77"/>
       <c r="J19" s="78"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="25">
         <v>0</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="77"/>
       <c r="J20" s="78"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="77"/>
       <c r="J21" s="78"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="77"/>
       <c r="J22" s="79"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J23" s="65"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="26">
+      <c r="A24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="28">
         <v>1</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="29">
         <v>2</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="29">
         <v>3</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="29">
         <v>4</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="30">
         <v>5</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="29">
         <v>6</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="30">
         <v>7</v>
       </c>
       <c r="I24" s="80">
         <v>8</v>
       </c>
       <c r="J24" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3072,86 +3062,86 @@
         <v>6</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="H25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="81"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A26" s="27"/>
+      <c r="B26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="34">
+        <v>4</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="E26" s="36">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="81"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1" spans="10:10">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="81"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A26" s="25"/>
-      <c r="B26" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B28" s="28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="29">
+        <v>2</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3</v>
+      </c>
+      <c r="E28" s="29">
         <v>4</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="35">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0</v>
-      </c>
-      <c r="I26" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="81"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J27" s="65"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="26">
-        <v>1</v>
-      </c>
-      <c r="C28" s="27">
-        <v>2</v>
-      </c>
-      <c r="D28" s="27">
-        <v>3</v>
-      </c>
-      <c r="E28" s="27">
-        <v>4</v>
-      </c>
-      <c r="F28" s="28">
+      <c r="F28" s="30">
         <v>5</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="29">
         <v>6</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="30">
         <v>7</v>
       </c>
       <c r="I28" s="80">
         <v>8</v>
       </c>
-      <c r="J28" s="65"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3161,86 +3151,86 @@
         <v>6</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="65"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="34">
+        <v>4</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37">
+        <v>0</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0</v>
+      </c>
+      <c r="H30" s="37">
+        <v>0</v>
+      </c>
+      <c r="I30" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="67"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1" spans="10:10">
+      <c r="J31" s="67"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="32">
+      <c r="B32" s="28">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>2</v>
+      </c>
+      <c r="D32" s="29">
+        <v>3</v>
+      </c>
+      <c r="E32" s="30">
         <v>4</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="34">
-        <v>0</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0</v>
-      </c>
-      <c r="G30" s="34">
-        <v>0</v>
-      </c>
-      <c r="H30" s="35">
-        <v>0</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="65"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J31" s="65"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:10">
-      <c r="A32" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="26">
-        <v>1</v>
-      </c>
-      <c r="C32" s="27">
-        <v>2</v>
-      </c>
-      <c r="D32" s="27">
-        <v>3</v>
-      </c>
-      <c r="E32" s="28">
-        <v>4</v>
-      </c>
-      <c r="F32" s="27">
+      <c r="F32" s="29">
         <v>5</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="29">
         <v>6</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="30">
         <v>7</v>
       </c>
       <c r="I32" s="80">
         <v>8</v>
       </c>
-      <c r="J32" s="65"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" customHeight="1" spans="1:10">
-      <c r="A33" s="37"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3249,77 +3239,77 @@
       <c r="D33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="67"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A34" s="39"/>
+      <c r="B34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="34">
+        <v>4</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="37">
+        <v>0</v>
+      </c>
+      <c r="I34" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" spans="10:10">
+      <c r="J35" s="67"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="65"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A34" s="37"/>
-      <c r="B34" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="32">
+      <c r="B36" s="28">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29">
+        <v>2</v>
+      </c>
+      <c r="D36" s="29">
+        <v>3</v>
+      </c>
+      <c r="E36" s="30">
         <v>4</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="35">
-        <v>0</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="65"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J35" s="65"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:10">
-      <c r="A36" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="26">
-        <v>1</v>
-      </c>
-      <c r="C36" s="27">
-        <v>2</v>
-      </c>
-      <c r="D36" s="27">
-        <v>3</v>
-      </c>
-      <c r="E36" s="28">
-        <v>4</v>
-      </c>
-      <c r="F36" s="27">
+      <c r="F36" s="29">
         <v>5</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="29">
         <v>6</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="30">
         <v>7</v>
       </c>
       <c r="I36" s="80">
         <v>8</v>
       </c>
-      <c r="J36" s="65"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" customHeight="1" spans="1:10">
-      <c r="A37" s="44"/>
-      <c r="B37" s="29" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3329,86 +3319,86 @@
         <v>6</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="67"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A38" s="46"/>
+      <c r="B38" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="34">
+        <v>4</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="65"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A38" s="44"/>
-      <c r="B38" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="32">
+      <c r="F38" s="37">
+        <v>0</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0</v>
+      </c>
+      <c r="H38" s="37">
+        <v>0</v>
+      </c>
+      <c r="I38" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="67"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1" spans="10:10">
+      <c r="J39" s="67"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="28">
+        <v>1</v>
+      </c>
+      <c r="C40" s="29">
+        <v>2</v>
+      </c>
+      <c r="D40" s="29">
+        <v>3</v>
+      </c>
+      <c r="E40" s="29">
         <v>4</v>
       </c>
-      <c r="D38" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="35">
-        <v>0</v>
-      </c>
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
-      <c r="H38" s="35">
-        <v>0</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="65"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J39" s="65"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:10">
-      <c r="A40" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="26">
-        <v>1</v>
-      </c>
-      <c r="C40" s="27">
-        <v>2</v>
-      </c>
-      <c r="D40" s="27">
-        <v>3</v>
-      </c>
-      <c r="E40" s="27">
-        <v>4</v>
-      </c>
-      <c r="F40" s="28">
+      <c r="F40" s="30">
         <v>5</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="29">
         <v>6</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="30">
         <v>7</v>
       </c>
       <c r="I40" s="80">
         <v>8</v>
       </c>
-      <c r="J40" s="65"/>
+      <c r="J40" s="67"/>
     </row>
     <row r="41" customHeight="1" spans="1:10">
-      <c r="A41" s="25"/>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -3418,86 +3408,86 @@
         <v>6</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="65"/>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A42" s="25"/>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="34">
         <v>4</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="34">
+      <c r="D42" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="36">
         <v>0</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="37">
         <v>0</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="36">
         <v>0</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="37">
         <v>0</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" s="65"/>
+        <v>34</v>
+      </c>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J43" s="65"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" customHeight="1" spans="1:10">
-      <c r="A44" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="26">
+      <c r="A44" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="28">
         <v>1</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="29">
         <v>2</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="29">
         <v>3</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="30">
         <v>4</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="29">
         <v>5</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="29">
         <v>6</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="30">
         <v>7</v>
       </c>
       <c r="I44" s="80">
         <v>8</v>
       </c>
-      <c r="J44" s="65"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" customHeight="1" spans="1:10">
-      <c r="A45" s="44"/>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3506,71 +3496,71 @@
       <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="30" t="s">
+      <c r="E45" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="65"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A46" s="44"/>
-      <c r="B46" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="32">
+      <c r="A46" s="46"/>
+      <c r="B46" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="34">
         <v>4</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="37">
+        <v>0</v>
+      </c>
+      <c r="I46" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="67"/>
+    </row>
+    <row r="47" customHeight="1" spans="10:10">
+      <c r="J47" s="67"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:30">
+      <c r="A48" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="48">
+        <v>4</v>
+      </c>
+      <c r="F48" s="48">
+        <v>5</v>
+      </c>
+      <c r="G48" s="48">
+        <v>6</v>
+      </c>
+      <c r="H48" s="48">
+        <v>7</v>
+      </c>
+      <c r="I48" s="83" t="s">
         <v>81</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="35">
-        <v>0</v>
-      </c>
-      <c r="I46" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="65"/>
-    </row>
-    <row r="47" customHeight="1" spans="10:10">
-      <c r="J47" s="65"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:30">
-      <c r="A48" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="46">
-        <v>1</v>
-      </c>
-      <c r="C48" s="46">
-        <v>2</v>
-      </c>
-      <c r="D48" s="46">
-        <v>3</v>
-      </c>
-      <c r="E48" s="46">
-        <v>4</v>
-      </c>
-      <c r="F48" s="46">
-        <v>5</v>
-      </c>
-      <c r="G48" s="46">
-        <v>6</v>
-      </c>
-      <c r="H48" s="46">
-        <v>7</v>
-      </c>
-      <c r="I48" s="83" t="s">
-        <v>83</v>
       </c>
       <c r="J48" s="84"/>
       <c r="K48" s="85"/>
@@ -3595,30 +3585,30 @@
       <c r="AD48" s="85"/>
     </row>
     <row r="49" customHeight="1" spans="1:30">
-      <c r="A49" s="45"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="G49" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="H49" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="I49" s="86" t="s">
         <v>87</v>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="86" t="s">
-        <v>89</v>
       </c>
       <c r="J49" s="84"/>
       <c r="K49" s="85"/>
@@ -3643,33 +3633,33 @@
       <c r="AD49" s="85"/>
     </row>
     <row r="50" ht="115.5" customHeight="1" spans="1:30">
-      <c r="A50" s="45"/>
-      <c r="B50" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="47" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="F50" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="G50" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="H50" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="J50" s="87" t="s">
         <v>94</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="87" t="s">
-        <v>96</v>
       </c>
       <c r="K50" s="88"/>
       <c r="L50" s="85"/>
@@ -3693,32 +3683,32 @@
       <c r="AD50" s="85"/>
     </row>
     <row r="51" customHeight="1" spans="1:30">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="E51" s="48">
+        <v>16</v>
+      </c>
+      <c r="F51" s="48">
+        <v>17</v>
+      </c>
+      <c r="G51" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="H51" s="48" t="s">
         <v>99</v>
-      </c>
-      <c r="E51" s="46">
-        <v>16</v>
-      </c>
-      <c r="F51" s="46">
-        <v>17</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="46" t="s">
-        <v>101</v>
       </c>
       <c r="I51" s="89">
         <v>22</v>
       </c>
-      <c r="J51" s="71"/>
+      <c r="J51" s="72"/>
       <c r="K51" s="85"/>
       <c r="L51" s="85"/>
       <c r="M51" s="85"/>
@@ -3741,32 +3731,32 @@
       <c r="AD51" s="85"/>
     </row>
     <row r="52" customHeight="1" spans="1:30">
-      <c r="A52" s="45"/>
-      <c r="B52" s="48" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="E52" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="F52" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="G52" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="H52" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="I52" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="J52" s="71"/>
+      <c r="J52" s="72"/>
       <c r="K52" s="85"/>
       <c r="L52" s="85"/>
       <c r="M52" s="85"/>
@@ -3789,32 +3779,32 @@
       <c r="AD52" s="85"/>
     </row>
     <row r="53" ht="31.5" customHeight="1" spans="1:30">
-      <c r="A53" s="45"/>
-      <c r="B53" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="48" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="J53" s="71"/>
+      <c r="J53" s="72"/>
       <c r="K53" s="85"/>
       <c r="L53" s="85"/>
       <c r="M53" s="85"/>
@@ -3837,32 +3827,32 @@
       <c r="AD53" s="85"/>
     </row>
     <row r="54" customHeight="1" spans="1:30">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46">
+      <c r="A54" s="47"/>
+      <c r="B54" s="48">
         <v>23</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="48">
         <v>24</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="48">
         <v>25</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="48">
         <v>26</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="46">
+      <c r="F54" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="48">
         <v>35</v>
       </c>
       <c r="I54" s="89">
         <v>36</v>
       </c>
-      <c r="J54" s="71"/>
+      <c r="J54" s="72"/>
       <c r="K54" s="85"/>
       <c r="L54" s="85"/>
       <c r="M54" s="85"/>
@@ -3885,32 +3875,32 @@
       <c r="AD54" s="85"/>
     </row>
     <row r="55" customHeight="1" spans="1:30">
-      <c r="A55" s="45"/>
-      <c r="B55" s="48" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="E55" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="F55" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="G55" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="H55" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>121</v>
-      </c>
       <c r="I55" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="J55" s="71"/>
+        <v>27</v>
+      </c>
+      <c r="J55" s="72"/>
       <c r="K55" s="85"/>
       <c r="L55" s="85"/>
       <c r="M55" s="85"/>
@@ -3933,30 +3923,30 @@
       <c r="AD55" s="85"/>
     </row>
     <row r="56" ht="56.75" customHeight="1" spans="1:30">
-      <c r="A56" s="45"/>
-      <c r="B56" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="51" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="F56" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="48">
+      <c r="G56" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="50">
         <v>0</v>
       </c>
       <c r="I56" s="86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J56" s="73"/>
       <c r="K56" s="85"/>
@@ -3981,31 +3971,31 @@
       <c r="AD56" s="85"/>
     </row>
     <row r="57" ht="16.5" customHeight="1" spans="10:10">
-      <c r="J57" s="65"/>
+      <c r="J57" s="67"/>
     </row>
     <row r="58" customHeight="1" spans="1:40">
-      <c r="A58" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="53">
+      <c r="A58" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="55">
         <v>1</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="56">
         <v>2</v>
       </c>
-      <c r="D58" s="54">
+      <c r="D58" s="56">
         <v>3</v>
       </c>
-      <c r="E58" s="54">
+      <c r="E58" s="56">
         <v>4</v>
       </c>
-      <c r="F58" s="54">
+      <c r="F58" s="56">
         <v>5</v>
       </c>
-      <c r="G58" s="54">
+      <c r="G58" s="56">
         <v>6</v>
       </c>
-      <c r="H58" s="54">
+      <c r="H58" s="56">
         <v>7</v>
       </c>
       <c r="I58" s="91">
@@ -4023,30 +4013,30 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:40">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="H59" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="57" t="s">
+      <c r="I59" s="93" t="s">
         <v>129</v>
-      </c>
-      <c r="H59" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="I59" s="93" t="s">
-        <v>131</v>
       </c>
       <c r="J59" s="92"/>
       <c r="AF59" s="1"/>
@@ -4060,56 +4050,56 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="114.75" customHeight="1" spans="1:10">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="58" t="s">
+      <c r="C60" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="J60" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="I60" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="J60" s="95" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="61" customHeight="1" spans="1:40">
-      <c r="A61" s="52"/>
-      <c r="B61" s="60">
+      <c r="A61" s="54"/>
+      <c r="B61" s="62">
         <v>9</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="63">
         <v>10</v>
       </c>
-      <c r="D61" s="61">
+      <c r="D61" s="63">
         <v>11</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="63">
         <v>12</v>
       </c>
-      <c r="F61" s="61">
+      <c r="F61" s="63">
         <v>13</v>
       </c>
-      <c r="G61" s="61">
+      <c r="G61" s="63">
         <v>14</v>
       </c>
-      <c r="H61" s="61">
+      <c r="H61" s="63">
         <v>15</v>
       </c>
       <c r="I61" s="96">
@@ -4127,30 +4117,30 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" customHeight="1" spans="1:40">
-      <c r="A62" s="52"/>
-      <c r="B62" s="62" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="E62" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="F62" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="G62" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="H62" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="I62" s="93" t="s">
         <v>140</v>
-      </c>
-      <c r="H62" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="I62" s="93" t="s">
-        <v>142</v>
       </c>
       <c r="J62" s="92"/>
       <c r="AF62" s="1"/>
@@ -4164,30 +4154,30 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" ht="25.5" customHeight="1" spans="1:40">
-      <c r="A63" s="52"/>
-      <c r="B63" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="59" t="s">
-        <v>143</v>
+      <c r="A63" s="54"/>
+      <c r="B63" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>141</v>
       </c>
       <c r="I63" s="94" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J63" s="92"/>
       <c r="AF63" s="1"/>
@@ -4201,26 +4191,26 @@
       <c r="AN63" s="1"/>
     </row>
     <row r="64" customHeight="1" spans="1:40">
-      <c r="A64" s="52"/>
-      <c r="B64" s="60">
+      <c r="A64" s="54"/>
+      <c r="B64" s="62">
         <v>25</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C64" s="63">
         <v>26</v>
       </c>
-      <c r="D64" s="61">
+      <c r="D64" s="63">
         <v>27</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="63">
         <v>28</v>
       </c>
-      <c r="F64" s="61">
+      <c r="F64" s="63">
         <v>29</v>
       </c>
-      <c r="G64" s="61">
+      <c r="G64" s="63">
         <v>30</v>
       </c>
-      <c r="H64" s="61">
+      <c r="H64" s="63">
         <v>31</v>
       </c>
       <c r="I64" s="96">
@@ -4238,30 +4228,30 @@
       <c r="AN64" s="1"/>
     </row>
     <row r="65" customHeight="1" spans="1:40">
-      <c r="A65" s="52"/>
-      <c r="B65" s="62" t="s">
+      <c r="A65" s="54"/>
+      <c r="B65" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="E65" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="57" t="s">
+      <c r="F65" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="93" t="s">
         <v>27</v>
-      </c>
-      <c r="I65" s="93" t="s">
-        <v>35</v>
       </c>
       <c r="J65" s="92"/>
       <c r="AF65" s="1"/>
@@ -4275,18 +4265,18 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" ht="26.25" customHeight="1" spans="1:40">
-      <c r="A66" s="52"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E66" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F66" s="98">
         <v>0</v>
@@ -4298,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J66" s="92"/>
       <c r="AF66" s="1"/>
@@ -4313,7 +4303,7 @@
     </row>
     <row r="71" customHeight="1" spans="1:4">
       <c r="A71" s="99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" s="100"/>
       <c r="C71" s="100"/>
@@ -4321,7 +4311,7 @@
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="103"/>
       <c r="C72" s="103"/>
@@ -4329,7 +4319,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="A73" s="105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="106"/>
@@ -4342,7 +4332,7 @@
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" s="108"/>
       <c r="C74" s="108"/>
@@ -4350,7 +4340,7 @@
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" s="99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="100"/>
       <c r="C75" s="100"/>
@@ -4358,7 +4348,7 @@
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" s="110" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="110"/>
       <c r="C76" s="110"/>
@@ -4366,7 +4356,7 @@
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" s="110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" s="110"/>
       <c r="C77" s="110"/>

--- a/Doc/上下肢通讯协议-上位机对主板.xlsx
+++ b/Doc/上下肢通讯协议-上位机对主板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28380" windowHeight="15075"/>
+    <workbookView windowWidth="30675" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="上下肢通讯协议总表" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,11 @@
 5：上肢带下肢
 6：下肢带上肢
 7：自由训练
-8：FES训练</t>
+8：FES训练
+9、四肢被动
+10、四肢主动
+11、上主下被
+12、上被下主</t>
   </si>
   <si>
     <t>0:反 1:正</t>
@@ -2537,8 +2541,8 @@
   </sheetPr>
   <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -3632,7 +3636,7 @@
       <c r="AC49" s="85"/>
       <c r="AD49" s="85"/>
     </row>
-    <row r="50" ht="115.5" customHeight="1" spans="1:30">
+    <row r="50" ht="164" customHeight="1" spans="1:30">
       <c r="A50" s="47"/>
       <c r="B50" s="49" t="s">
         <v>67</v>
